--- a/va_facility_data_2025-02-20/Ukiah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ukiah%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ukiah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ukiah%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R538a9788e0394dee90118c506d2e63f1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R38a0c5321d5845e0a0fcec9137a75164"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc98c058bd2174f8fb0d1dddfedb61177"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R925e5ba50046493dbcd9e685eecfc1b4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8585b099ed884ed9aa828c18951e6ae1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R639945bf9baf4038ab40306255332059"/>
   </x:sheets>
 </x:workbook>
 </file>
